--- a/biology/Médecine/Tetiana_Ostachtchenko/Tetiana_Ostachtchenko.xlsx
+++ b/biology/Médecine/Tetiana_Ostachtchenko/Tetiana_Ostachtchenko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tetiana Mykolaivna Ostachtchenko (en ukrainien : Тетяна Миколаївна Остащенко) née en août 1974, est un médecin militaire ukrainien, général de brigade et commandant des forces médicales des Forces armées ukrainiennes depuis 2021. Elle est la première femme de l'histoire de l'Ukraine à commander une branche militaire, ainsi que la première femme à détenir le grade de général de brigade[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tetiana Mykolaivna Ostachtchenko (en ukrainien : Тетяна Миколаївна Остащенко) née en août 1974, est un médecin militaire ukrainien, général de brigade et commandant des forces médicales des Forces armées ukrainiennes depuis 2021. Elle est la première femme de l'histoire de l'Ukraine à commander une branche militaire, ainsi que la première femme à détenir le grade de général de brigade.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tetiana Ostachtchenko est née à Lviv, à l'ouest de l'Ukraine, en août 1974.
 En 1996, elle est diplômée avec mention de l'université nationale de médecine Danylo Halytsky Lviv, une faculté de pharmacie.
@@ -525,7 +539,7 @@
 chef du département des achats médicaux du département principal de médecine militaire ;
 inspecteur en chef de l'inspection principale du ministère de la Défense de l'Ukraine.
 En juillet 2021, elle est nommée commandant des forces médicales des Forces armées ukrainiennes. Tetiana Ostachtchenko est devenue la première femme de l'histoire de l'Ukraine à commander une branche militaire, ainsi que la première femme à détenir le grade de général de brigade.
-Elle est révoquée de son poste le 19 novembre 2023, pour être remplacée par Anatoli Kazmirtchouk (uk)[2].
+Elle est révoquée de son poste le 19 novembre 2023, pour être remplacée par Anatoli Kazmirtchouk (uk).
 </t>
         </is>
       </c>
